--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterate="1"/>
 </workbook>
 </file>
 
@@ -96,31 +96,31 @@
   </si>
   <si>
     <t>DrawdownDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>額度編號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>業績金額</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BormNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PfBsDetail</t>
@@ -128,7 +128,7 @@
   </si>
   <si>
     <t>DecimalD</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>FacMain.BusinessOfficer 放款業務專員</t>
@@ -147,7 +147,7 @@
   </si>
   <si>
     <t>WorkSeason</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -155,43 +155,43 @@
   </si>
   <si>
     <t>CreateDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>建檔人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新日期時間</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>最後更新人員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findFacmNoRange</t>
@@ -203,7 +203,7 @@
   </si>
   <si>
     <t>PerfDate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findBsOfficerAndWorkMonth</t>
@@ -243,7 +243,7 @@
   </si>
   <si>
     <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findByPerfDateAndCustNo</t>
@@ -251,27 +251,23 @@
   </si>
   <si>
     <t>ProdCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PieceCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DrawdownAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PerfCnt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PerfAmt</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findByWorkMonth</t>
@@ -305,51 +301,51 @@
   </si>
   <si>
     <t>業績日期</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>戶號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>房貸專員</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DeptCode</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>部室代號</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>撥款日</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>商品代碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>計件代碼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>件數</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作月</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>工作季</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>BsOfficer</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>應以PfBsOfficer(房貸專員業績目標檔)計算業績</t>
@@ -361,7 +357,7 @@
   </si>
   <si>
     <t xml:space="preserve">撥款金額/追回金額 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>PerfDate DESC</t>
@@ -369,7 +365,7 @@
   </si>
   <si>
     <t>LogNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>序號</t>
@@ -400,15 +396,15 @@
   </si>
   <si>
     <t>還款類別</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>DECIMAL</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>RepayType</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>findByTxFirst</t>
@@ -438,14 +434,18 @@
   </si>
   <si>
     <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案4.人工增減業績</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -505,13 +505,6 @@
       <charset val="136"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
-      <charset val="136"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="1"/>
@@ -523,26 +516,6 @@
       <color rgb="FF000000"/>
       <name val="標楷體"/>
       <family val="4"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="微軟正黑體"/>
-      <family val="2"/>
-      <charset val="136"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="思源宋體"/>
-      <family val="1"/>
       <charset val="136"/>
     </font>
     <font>
@@ -636,7 +609,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,15 +667,21 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -712,6 +691,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -724,37 +709,19 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1064,11 +1031,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:G19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1079,11 +1046,11 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="26"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
@@ -1094,9 +1061,9 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1107,13 +1074,13 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="28" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="28"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1122,22 +1089,22 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="27"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="28" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1146,11 +1113,11 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="26"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="3" t="s">
         <v>32</v>
       </c>
@@ -1159,18 +1126,18 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="25" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+    <row r="8" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1193,371 +1160,371 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="33">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="1:7" ht="64.8" customHeight="1">
-      <c r="A10" s="19">
+      <c r="D9" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="35"/>
+    </row>
+    <row r="10" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
         <v>2</v>
       </c>
-      <c r="B10" s="22" t="s">
+      <c r="B10" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="23">
+        <v>8</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>3</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="24">
-        <v>8</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="23">
         <v>7</v>
       </c>
       <c r="G11" s="16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
         <v>4</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
         <v>5</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="23">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="33">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="36">
         <v>6</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="35" t="s">
+      <c r="B14" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="D14" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="E14" s="26">
         <v>1</v>
       </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="39" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="F14" s="27"/>
+      <c r="G14" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
         <v>7</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="23">
+        <v>6</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>8</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="23">
+        <v>6</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D15" s="22" t="s">
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>9</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>10</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="24">
-        <v>6</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="22" t="s">
+      <c r="E18" s="23">
+        <v>5</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>11</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="24">
-        <v>6</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="24">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="24">
-        <v>5</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="E19" s="23">
         <v>1</v>
       </c>
-      <c r="G19" s="20"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="19">
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
         <v>12</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="C20" s="23" t="s">
-        <v>87</v>
-      </c>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="23">
         <v>16</v>
       </c>
       <c r="F20" s="16">
         <v>2</v>
       </c>
-      <c r="G20" s="20" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="19">
+      <c r="G20" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
         <v>13</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D21" s="22" t="s">
+      <c r="B21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="23">
         <v>5</v>
       </c>
       <c r="F21" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
         <v>14</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B22" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>16</v>
       </c>
       <c r="F22" s="16">
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
         <v>15</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="23" t="s">
+      <c r="B23" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>16</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D24" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E24" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="23"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>18</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="24">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="22" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>19</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="22" t="s">
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>20</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="24"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="24">
+      <c r="E28" s="23">
         <v>6</v>
       </c>
     </row>
@@ -1586,7 +1553,7 @@
       <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.5546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="53.77734375" style="1" customWidth="1"/>
@@ -1594,7 +1561,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1605,7 +1572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>45</v>
       </c>
@@ -1613,10 +1580,10 @@
         <v>46</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>48</v>
       </c>
@@ -1624,7 +1591,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -1632,7 +1599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>51</v>
       </c>
@@ -1643,7 +1610,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>54</v>
       </c>
@@ -1651,7 +1618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>58</v>
       </c>
@@ -1659,70 +1626,70 @@
         <v>52</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.2" customHeight="1">
+    </row>
+    <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="38" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -104,10 +104,6 @@
   </si>
   <si>
     <t>撥款序號</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績金額</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -439,6 +435,30 @@
   <si>
     <t>WorkMonth</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfCnt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfAmt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整加減件數</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整加減業績金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>by eric 2021.11.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -526,7 +546,7 @@
       <charset val="136"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="31"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,7 +635,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -697,6 +723,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -709,20 +747,23 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1029,10 +1070,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1047,12 +1088,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1062,8 +1103,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1075,12 +1116,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="32"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1090,10 +1131,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="35"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1101,12 +1142,12 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1114,12 +1155,12 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1127,10 +1168,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1161,206 +1202,216 @@
       </c>
     </row>
     <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33">
+      <c r="A9" s="29">
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C9" s="34" t="s">
-        <v>89</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="35"/>
+      <c r="G9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="64.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
+        <f>A9+1</f>
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
+        <f t="shared" ref="A11:A30" si="0">A10+1</f>
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E11" s="23">
         <v>7</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="33">
+      <c r="A12" s="29">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="33">
+      <c r="A13" s="29">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="36">
+      <c r="A14" s="29">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>96</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>97</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="27"/>
-      <c r="G14" s="37" t="s">
-        <v>105</v>
+      <c r="G14" s="32" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="33">
+      <c r="A15" s="29">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E15" s="23">
         <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33">
+      <c r="A16" s="29">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>76</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E16" s="23">
         <v>6</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="33">
+      <c r="A17" s="29">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E17" s="23">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" s="23">
         <v>5</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="33">
+      <c r="A19" s="29">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
@@ -1368,17 +1419,18 @@
       <c r="G19" s="19"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="33">
+      <c r="A20" s="29">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20" s="23">
         <v>16</v>
@@ -1387,21 +1439,22 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="33">
+      <c r="A21" s="29">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E21" s="23">
         <v>5</v>
@@ -1411,17 +1464,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="33">
+      <c r="A22" s="29">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="21" t="s">
         <v>23</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>24</v>
       </c>
       <c r="E22" s="23">
         <v>16</v>
@@ -1431,100 +1485,154 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="33">
+      <c r="A23" s="37">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="40">
+        <v>5</v>
+      </c>
+      <c r="F23" s="41">
+        <v>1</v>
+      </c>
+      <c r="G23" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B24" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="C24" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="40">
+        <v>16</v>
+      </c>
+      <c r="F24" s="41">
+        <v>2</v>
+      </c>
+      <c r="G24" s="42" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="29">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="29">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="D23" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E23" s="23">
+      <c r="D26" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="23">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="29">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="29">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="23">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="33">
-        <v>16</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33">
-        <v>17</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="22" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D29" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E25" s="23"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="33">
-        <v>18</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C26" s="22" t="s">
+      <c r="E29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="33">
-        <v>19</v>
-      </c>
-      <c r="B27" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="E27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="33">
-        <v>20</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="23">
+      <c r="E30" s="23">
         <v>6</v>
       </c>
     </row>
@@ -1574,122 +1682,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="28" t="s">
         <v>99</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1072,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -246,22 +246,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ProdCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>PieceCode</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawdownAmt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>PerfCnt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>PerfAmt</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -337,10 +321,6 @@
   </si>
   <si>
     <t>工作季</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>BsOfficer</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -421,6 +401,58 @@
   <si>
     <t>PerfDate ASC</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案4.人工增減業績</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfAmt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>業績金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整加減件數</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>週整加減業績金額</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>by eric 2021.11.4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PerfCnt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdjPerfCnt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProdCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>PieceCode</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawdownAmt</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>WorkMonth</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>BsOfficer</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>業績日期=系統營業日
@@ -429,35 +461,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.撥款(計件代碼變更) 2.部分償還 3.提前結案4.人工增減業績</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>WorkMonth</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfCnt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdjPerfAmt</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>業績金額</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>週整加減件數</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>週整加減業績金額</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>by eric 2021.11.4</t>
+    <t>追回時為扣除金額後重算之件數</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -735,6 +739,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -745,24 +767,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1072,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1088,10 +1092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
@@ -1103,8 +1107,8 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1116,12 +1120,12 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="36"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1131,10 +1135,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="10"/>
@@ -1142,10 +1146,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="42"/>
       <c r="C5" s="3" t="s">
         <v>30</v>
       </c>
@@ -1155,10 +1159,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
         <v>31</v>
       </c>
@@ -1168,10 +1172,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="41"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1206,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1227,7 +1231,7 @@
         <v>46</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D10" s="21" t="s">
         <v>27</v>
@@ -1236,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1248,7 +1252,7 @@
         <v>56</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D11" s="21" t="s">
         <v>23</v>
@@ -1302,20 +1306,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D14" s="24" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1324,10 +1328,10 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="21" t="s">
         <v>39</v>
@@ -1345,10 +1349,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>39</v>
@@ -1357,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1369,7 +1373,7 @@
         <v>20</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>27</v>
@@ -1384,10 +1388,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>39</v>
@@ -1405,10 +1409,10 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D19" s="21" t="s">
         <v>39</v>
@@ -1424,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>23</v>
@@ -1439,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1448,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>23</v>
@@ -1461,6 +1465,9 @@
       </c>
       <c r="F21" s="16">
         <v>1</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1469,10 +1476,10 @@
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>23</v>
@@ -1485,51 +1492,51 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="37">
+      <c r="A23" s="33">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B23" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="39" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="38" t="s">
+      <c r="B23" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="40">
+      <c r="E23" s="36">
         <v>5</v>
       </c>
-      <c r="F23" s="41">
+      <c r="F23" s="37">
         <v>1</v>
       </c>
-      <c r="G23" s="42" t="s">
-        <v>111</v>
+      <c r="G23" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="37">
+      <c r="A24" s="33">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B24" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="C24" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D24" s="38" t="s">
+      <c r="B24" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="40">
+      <c r="E24" s="36">
         <v>16</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="37">
         <v>2</v>
       </c>
-      <c r="G24" s="42" t="s">
-        <v>111</v>
+      <c r="G24" s="38" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1538,10 +1545,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>23</v>
@@ -1559,7 +1566,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>23</v>
@@ -1688,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1734,70 +1741,70 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L5-管理性作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="9084"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -312,10 +312,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>件數</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
     <t>工作月</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -381,10 +377,6 @@
   <si>
     <t>RepayType</t>
     <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>findByTxFirst</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND BormNo = ,AND PerfDate = ,AND RepayType = ,AND PieceCode = </t>
@@ -463,6 +455,14 @@
   <si>
     <t>追回時為扣除金額後重算之件數</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findByTxFirst</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>件數</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1210,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>83</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1240,7 +1240,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1306,20 +1306,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>90</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>91</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,7 +1328,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>69</v>
@@ -1361,7 +1361,7 @@
         <v>6</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1388,7 +1388,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>73</v>
@@ -1409,7 +1409,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>74</v>
@@ -1428,10 +1428,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="21" t="s">
         <v>23</v>
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,10 +1452,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D21" s="21" t="s">
         <v>23</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1479,7 +1479,7 @@
         <v>58</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>23</v>
@@ -1497,10 +1497,10 @@
         <v>15</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="34" t="s">
         <v>23</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,10 +1521,10 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D24" s="34" t="s">
         <v>23</v>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,10 +1545,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="21" t="s">
         <v>23</v>
@@ -1566,7 +1566,7 @@
         <v>32</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D26" s="21" t="s">
         <v>23</v>
@@ -1663,9 +1663,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
+      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1695,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1741,7 +1741,7 @@
         <v>51</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1779,32 +1779,32 @@
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132" activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -91,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>房貸專員業績明細檔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>DrawdownDate</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
@@ -463,6 +459,10 @@
   <si>
     <t>件數</t>
     <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>房貸專員業績明細檔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1076,8 +1076,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1097,10 +1097,10 @@
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B3" s="42"/>
       <c r="C3" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1151,7 +1151,7 @@
       </c>
       <c r="B5" s="42"/>
       <c r="C5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1210,13 +1210,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>82</v>
-      </c>
       <c r="D9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1228,19 +1228,19 @@
         <v>2</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="23">
         <v>8</v>
       </c>
       <c r="G10" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1249,19 +1249,19 @@
         <v>3</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="23">
         <v>7</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
@@ -1270,13 +1270,13 @@
         <v>4</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12" s="23">
         <v>3</v>
@@ -1288,13 +1288,13 @@
         <v>5</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>23</v>
       </c>
       <c r="E13" s="23">
         <v>3</v>
@@ -1306,20 +1306,20 @@
         <v>6</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C14" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>89</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>90</v>
       </c>
       <c r="E14" s="26">
         <v>1</v>
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
@@ -1328,19 +1328,19 @@
         <v>7</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="23">
         <v>6</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1349,19 +1349,19 @@
         <v>8</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C16" s="22" t="s">
-        <v>71</v>
-      </c>
       <c r="D16" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E16" s="23">
         <v>6</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -1370,13 +1370,13 @@
         <v>9</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E17" s="23">
         <v>8</v>
@@ -1388,19 +1388,19 @@
         <v>10</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E18" s="23">
         <v>5</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -1409,13 +1409,13 @@
         <v>11</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E19" s="23">
         <v>1</v>
@@ -1428,13 +1428,13 @@
         <v>12</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E20" s="23">
         <v>16</v>
@@ -1443,7 +1443,7 @@
         <v>2</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
@@ -1452,13 +1452,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E21" s="23">
         <v>5</v>
@@ -1467,7 +1467,7 @@
         <v>1</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1476,13 +1476,13 @@
         <v>14</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D22" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E22" s="23">
         <v>16</v>
@@ -1497,13 +1497,13 @@
         <v>15</v>
       </c>
       <c r="B23" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D23" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E23" s="36">
         <v>5</v>
@@ -1512,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="G23" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -1521,13 +1521,13 @@
         <v>16</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D24" s="34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E24" s="36">
         <v>16</v>
@@ -1536,7 +1536,7 @@
         <v>2</v>
       </c>
       <c r="G24" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
@@ -1545,13 +1545,13 @@
         <v>17</v>
       </c>
       <c r="B25" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E25" s="23">
         <v>6</v>
@@ -1563,13 +1563,13 @@
         <v>18</v>
       </c>
       <c r="B26" s="21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E26" s="23">
         <v>5</v>
@@ -1581,13 +1581,13 @@
         <v>19</v>
       </c>
       <c r="B27" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="D27" s="21" t="s">
-        <v>36</v>
       </c>
       <c r="E27" s="23"/>
     </row>
@@ -1597,13 +1597,13 @@
         <v>20</v>
       </c>
       <c r="B28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="D28" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="D28" s="21" t="s">
-        <v>39</v>
       </c>
       <c r="E28" s="23">
         <v>6</v>
@@ -1615,13 +1615,13 @@
         <v>21</v>
       </c>
       <c r="B29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>41</v>
-      </c>
       <c r="D29" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E29" s="23"/>
     </row>
@@ -1631,13 +1631,13 @@
         <v>22</v>
       </c>
       <c r="B30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C30" s="22" t="s">
-        <v>43</v>
-      </c>
       <c r="D30" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E30" s="23">
         <v>6</v>
@@ -1663,7 +1663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -1689,122 +1689,122 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
+++ b/DbLayouts/L5-管理性作業/PfBsDetail.xlsx
@@ -1,26 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E49BB7F-8F20-41F2-A18A-4B926BF2A268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="116">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -463,12 +473,24 @@
   <si>
     <t>房貸專員業績明細檔</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findDrawdownBetween</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawdownDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawdownDate &gt;= ,AND DrawdownDate &lt;=</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -772,7 +794,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -863,6 +885,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -898,6 +937,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1073,11 +1129,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1660,12 +1716,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1807,6 +1863,17 @@
         <v>94</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
